--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bgdpbes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/SD/elec/BGDPbES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B831B-97A2-1F47-B0E7-C814EF427FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{544210FB-2842-2240-BB12-1920486E9EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="23000" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Notes:</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>BAU Guaranteed Dispatch (dimensionless)</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -511,8 +516,11 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
       <c r="C1" s="4">
-        <v>44307</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -568,7 +576,9 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1286,147 +1296,147 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -1434,147 +1444,147 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
@@ -1582,147 +1592,147 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -1730,147 +1740,147 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <f t="shared" ref="D9:AK14" si="2">$B9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -1878,147 +1888,147 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -2470,147 +2480,147 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f>$B14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
@@ -2844,112 +2854,147 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f>B17</f>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f t="shared" ref="D17:AK17" si="3">C17</f>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SD\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A1799F-527F-48B9-BBD0-05B5D7FC7412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05DA027E-77CA-49B6-996F-091C35302D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="2160" yWindow="720" windowWidth="13580" windowHeight="10080" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
         <v>137</v>
       </c>
       <c r="C1" s="4">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -54722,8 +54722,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -55324,97 +55324,97 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.75">
@@ -55422,97 +55422,97 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.75">
@@ -56108,97 +56108,97 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.75">
@@ -56794,97 +56794,97 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.75">
@@ -56892,97 +56892,97 @@
         <v>39</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.75">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SD\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8641833-6DAA-4061-BA4A-FD6B3EBBAAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D3477A-690F-44E3-932E-E36CE8ED7DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17895" windowHeight="16500" firstSheet="7" activeTab="8" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
         <v>137</v>
       </c>
       <c r="C1" s="4">
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2384,8 +2384,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,8 +6375,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I48">
         <f>INDEX('petroleum adj'!B:B,MATCH(B48,'petroleum adj'!$A:$A,0))</f>
@@ -88906,8 +88906,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89955,22 +89955,22 @@
         <v>143</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SD\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D3477A-690F-44E3-932E-E36CE8ED7DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{647E9BD2-E24C-4075-9256-A1936269F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
@@ -1549,7 +1549,7 @@
         <v>137</v>
       </c>
       <c r="C1" s="4">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2385,7 +2385,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,111 +2976,112 @@
         <v>0.75</v>
       </c>
       <c r="F6">
-        <v>0.9</v>
+        <f>E6</f>
+        <v>0.75</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="S6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="V6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="W6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="X6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="Y6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="Z6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AA6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AB6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AC6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AD6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AE6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AF6">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -6375,8 +6376,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6836,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f>INDEX('petroleum adj'!B:B,MATCH(B13,'petroleum adj'!$A:$A,0))</f>
